--- a/2017年每月提成表/10月份提成付款申请表.xlsx
+++ b/2017年每月提成表/10月份提成付款申请表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$42</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -278,12 +278,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八月信达财险保险销售付款表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售数量300元</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月信达财险保险销售付款表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2892,7 +2892,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>51</v>
